--- a/anas.xlsx
+++ b/anas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hasan\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B6B2DF4-5605-4099-8F46-45123A838CA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58B8B6D3-5526-4913-83E2-BE3C492DABED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5DB468EC-E8DA-4095-AB4B-7C137E096B0C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="71">
   <si>
     <t>Laporan Detail Harian</t>
   </si>
@@ -158,12 +158,6 @@
     <t>29/04/2025</t>
   </si>
   <si>
-    <t>30/04/2025</t>
-  </si>
-  <si>
-    <t>16:01</t>
-  </si>
-  <si>
     <t>16:02</t>
   </si>
   <si>
@@ -221,7 +215,40 @@
     <t>16:20</t>
   </si>
   <si>
-    <t>16:21</t>
+    <t>13/06/2025</t>
+  </si>
+  <si>
+    <t>16/06/2025</t>
+  </si>
+  <si>
+    <t>17/06/2025</t>
+  </si>
+  <si>
+    <t>18/06/2025</t>
+  </si>
+  <si>
+    <t>19/06/2025</t>
+  </si>
+  <si>
+    <t>20/06/2025</t>
+  </si>
+  <si>
+    <t>23/06/2025</t>
+  </si>
+  <si>
+    <t>24/06/2025</t>
+  </si>
+  <si>
+    <t>25/06/2025</t>
+  </si>
+  <si>
+    <t>26/06/2025</t>
+  </si>
+  <si>
+    <t>27/06/2025</t>
+  </si>
+  <si>
+    <t>30/06/2025</t>
   </si>
 </sst>
 </file>
@@ -231,7 +258,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[h]:mm"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -257,16 +284,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="ºÚÌå"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -274,27 +312,101 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="20" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="S7" xfId="1" xr:uid="{EAFC6403-8560-4DD2-B4E9-6FEA72A31794}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -626,13 +738,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{624159EE-905D-4E57-B5EC-B98C4E04CF1B}">
-  <dimension ref="A1:P100"/>
+  <dimension ref="A1:R100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
@@ -643,12 +755,12 @@
     <col min="7" max="11" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18">
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -659,7 +771,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -670,7 +782,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -702,7 +814,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -712,33 +824,32 @@
       <c r="C8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="2">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0.66666666666666663</v>
+      <c r="D8" s="10">
+        <v>0.30416666666666664</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0.67013888888888884</v>
       </c>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18">
       <c r="A9" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0.70833333333333304</v>
-      </c>
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C9" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D9" s="10">
+        <v>0.29375000000000001</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0.66874999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -746,17 +857,16 @@
         <v>18</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="I10" s="3"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="D10" s="10">
+        <v>0.30555555555555558</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0.67152777777777772</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -764,17 +874,16 @@
         <v>18</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0.79166666666666696</v>
-      </c>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="D11" s="10">
+        <v>0.28055555555555556</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0.67152777777777772</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -782,17 +891,12 @@
         <v>18</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0.625</v>
-      </c>
-      <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -800,17 +904,21 @@
         <v>18</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0.66666666666666696</v>
-      </c>
-      <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="7"/>
+      <c r="L13" s="12">
+        <v>45694</v>
+      </c>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="9"/>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -818,17 +926,25 @@
         <v>18</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="D14" s="10">
+        <v>0.30208333333333331</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0.6694444444444444</v>
+      </c>
+      <c r="L14" s="12">
+        <v>45722</v>
+      </c>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="9"/>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -836,17 +952,25 @@
         <v>18</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="E15" s="2">
-        <v>0.625</v>
-      </c>
-      <c r="I15" s="3"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="D15" s="10">
+        <v>0.30277777777777776</v>
+      </c>
+      <c r="E15" s="6">
+        <v>0.6743055555555556</v>
+      </c>
+      <c r="L15" s="12">
+        <v>45753</v>
+      </c>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="9"/>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -854,17 +978,25 @@
         <v>18</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="2">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="E16" s="2">
-        <v>0.66666666666666696</v>
-      </c>
-      <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="D16" s="10">
+        <v>0.29722222222222222</v>
+      </c>
+      <c r="E16" s="6">
+        <v>0.66874999999999996</v>
+      </c>
+      <c r="L16" s="12">
+        <v>45783</v>
+      </c>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="9"/>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -872,18 +1004,25 @@
         <v>18</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="2">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="E17" s="2">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="I17" s="3"/>
-      <c r="O17" s="4"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+      <c r="D17" s="10">
+        <v>0.30694444444444446</v>
+      </c>
+      <c r="E17" s="6">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="L17" s="12">
+        <v>45814</v>
+      </c>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="9"/>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -891,19 +1030,25 @@
         <v>18</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="2">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="E18" s="2">
-        <v>0.58333333333333304</v>
-      </c>
-      <c r="I18" s="3"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="4"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+      <c r="D18" s="10">
+        <v>0.3034722222222222</v>
+      </c>
+      <c r="E18" s="6">
+        <v>0.66874999999999996</v>
+      </c>
+      <c r="L18" s="12">
+        <v>45906</v>
+      </c>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="9"/>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -911,19 +1056,25 @@
         <v>18</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" s="2">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="E19" s="2">
-        <v>0.625</v>
-      </c>
-      <c r="I19" s="3"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="4"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+      <c r="D19" s="10">
+        <v>0.2986111111111111</v>
+      </c>
+      <c r="E19" s="6">
+        <v>0.67083333333333328</v>
+      </c>
+      <c r="L19" s="12">
+        <v>45936</v>
+      </c>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="9"/>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -931,19 +1082,25 @@
         <v>18</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" s="2">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="E20" s="2">
-        <v>0.66666666666666696</v>
-      </c>
-      <c r="I20" s="3"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="4"/>
-    </row>
-    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="D20" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="E20" s="6">
+        <v>0.6694444444444444</v>
+      </c>
+      <c r="L20" s="12">
+        <v>45967</v>
+      </c>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="9"/>
+    </row>
+    <row r="21" spans="1:18" ht="15.75" customHeight="1">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -951,19 +1108,25 @@
         <v>18</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="2">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="E21" s="2">
-        <v>0.6875</v>
-      </c>
-      <c r="I21" s="3"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="4"/>
-    </row>
-    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="D21" s="10">
+        <v>0.3034722222222222</v>
+      </c>
+      <c r="E21" s="6">
+        <v>0.67013888888888884</v>
+      </c>
+      <c r="L21" s="12">
+        <v>45997</v>
+      </c>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="9"/>
+    </row>
+    <row r="22" spans="1:18" ht="15.75" customHeight="1">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -971,19 +1134,25 @@
         <v>18</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D22" s="2">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="E22" s="2">
-        <v>0.72916666666666696</v>
-      </c>
-      <c r="I22" s="3"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="4"/>
-    </row>
-    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="D22" s="10">
+        <v>0.30625000000000002</v>
+      </c>
+      <c r="E22" s="6">
+        <v>0.68958333333333333</v>
+      </c>
+      <c r="L22" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="9"/>
+    </row>
+    <row r="23" spans="1:18" ht="15.75" customHeight="1">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -991,19 +1160,25 @@
         <v>18</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D23" s="2">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="E23" s="2">
-        <v>0.6875</v>
-      </c>
-      <c r="I23" s="3"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="4"/>
-    </row>
-    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+      <c r="D23" s="10">
+        <v>0.30486111111111114</v>
+      </c>
+      <c r="E23" s="6">
+        <v>0.66805555555555551</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="9"/>
+    </row>
+    <row r="24" spans="1:18" ht="15.75" customHeight="1">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -1011,19 +1186,25 @@
         <v>18</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D24" s="2">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="E24" s="2">
-        <v>0.72916666666666696</v>
-      </c>
-      <c r="I24" s="3"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="4"/>
-    </row>
-    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+      <c r="D24" s="10">
+        <v>0.3034722222222222</v>
+      </c>
+      <c r="E24" s="6">
+        <v>0.67013888888888884</v>
+      </c>
+      <c r="L24" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="9"/>
+    </row>
+    <row r="25" spans="1:18" ht="15.75" customHeight="1">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -1031,19 +1212,25 @@
         <v>18</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D25" s="2">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="E25" s="2">
-        <v>0.60416666666666663</v>
-      </c>
-      <c r="I25" s="3"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="4"/>
-    </row>
-    <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+      <c r="D25" s="10">
+        <v>0.30763888888888891</v>
+      </c>
+      <c r="E25" s="6">
+        <v>0.67013888888888884</v>
+      </c>
+      <c r="L25" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="9"/>
+    </row>
+    <row r="26" spans="1:18" ht="15.75" customHeight="1">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -1051,19 +1238,21 @@
         <v>18</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D26" s="2">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="E26" s="2">
-        <v>0.64583333333333304</v>
-      </c>
-      <c r="I26" s="3"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="4"/>
-    </row>
-    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="7"/>
+      <c r="L26" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="9"/>
+    </row>
+    <row r="27" spans="1:18" ht="15.75" customHeight="1">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -1071,19 +1260,21 @@
         <v>18</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D27" s="2">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="E27" s="2">
-        <v>0.6875</v>
-      </c>
-      <c r="I27" s="3"/>
-      <c r="O27" s="5"/>
-      <c r="P27" s="4"/>
-    </row>
-    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="7"/>
+      <c r="L27" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="9"/>
+    </row>
+    <row r="28" spans="1:18" ht="15.75" customHeight="1">
       <c r="A28" t="s">
         <v>39</v>
       </c>
@@ -1091,130 +1282,175 @@
         <v>18</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D28" s="2">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="E28" s="2">
-        <v>0.72916666666666696</v>
-      </c>
-      <c r="I28" s="3"/>
-    </row>
-    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>40</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" s="2">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="E29" s="2">
-        <v>1.5416666666666601</v>
-      </c>
-      <c r="I29" s="3"/>
-    </row>
-    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="M35" s="6"/>
-      <c r="N35" s="6"/>
-    </row>
-    <row r="36" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="M36" s="5"/>
-    </row>
-    <row r="37" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="M37" s="5"/>
-    </row>
-    <row r="38" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="M38" s="5"/>
-    </row>
-    <row r="39" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="M39" s="5"/>
-    </row>
-    <row r="40" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="M40" s="5"/>
-    </row>
-    <row r="41" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="M41" s="5"/>
-    </row>
-    <row r="42" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="M42" s="5"/>
-    </row>
-    <row r="43" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="M43" s="5"/>
-    </row>
-    <row r="44" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="M44" s="5"/>
-    </row>
-    <row r="45" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="M45" s="5"/>
-    </row>
-    <row r="46" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="M46" s="5"/>
-    </row>
-    <row r="47" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="49" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="50" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="51" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="52" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="53" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="63" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="65" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="66" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="67" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="68" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="70" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="71" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="72" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="73" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="74" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="76" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="77" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="78" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="79" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="80" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="81" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="82" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="83" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="84" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="85" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="86" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="87" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="88" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="89" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="90" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="91" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="92" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="94" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="95" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="96" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="97" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="98" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="99" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="100" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+        <v>58</v>
+      </c>
+      <c r="D28" s="10">
+        <v>0.30208333333333331</v>
+      </c>
+      <c r="E28" s="6">
+        <v>0.67291666666666672</v>
+      </c>
+      <c r="L28" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="9"/>
+    </row>
+    <row r="29" spans="1:18" ht="15.75" customHeight="1">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="L29" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="9"/>
+    </row>
+    <row r="30" spans="1:18" ht="15.75" customHeight="1">
+      <c r="L30" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="9"/>
+    </row>
+    <row r="31" spans="1:18" ht="15.75" customHeight="1">
+      <c r="L31" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="9"/>
+    </row>
+    <row r="32" spans="1:18" ht="15.75" customHeight="1">
+      <c r="L32" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="9"/>
+    </row>
+    <row r="33" spans="12:18" ht="15.75" customHeight="1">
+      <c r="L33" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="9"/>
+    </row>
+    <row r="34" spans="12:18" ht="15.75" customHeight="1"/>
+    <row r="35" spans="12:18" ht="15.75" customHeight="1">
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+    </row>
+    <row r="36" spans="12:18" ht="15.75" customHeight="1">
+      <c r="M36" s="4"/>
+    </row>
+    <row r="37" spans="12:18" ht="15.75" customHeight="1">
+      <c r="M37" s="4"/>
+    </row>
+    <row r="38" spans="12:18" ht="15.75" customHeight="1">
+      <c r="M38" s="4"/>
+    </row>
+    <row r="39" spans="12:18" ht="15.75" customHeight="1">
+      <c r="M39" s="4"/>
+    </row>
+    <row r="40" spans="12:18" ht="15.75" customHeight="1">
+      <c r="M40" s="4"/>
+    </row>
+    <row r="41" spans="12:18" ht="15.75" customHeight="1">
+      <c r="M41" s="4"/>
+    </row>
+    <row r="42" spans="12:18" ht="15.75" customHeight="1">
+      <c r="M42" s="4"/>
+    </row>
+    <row r="43" spans="12:18" ht="15.75" customHeight="1">
+      <c r="M43" s="4"/>
+    </row>
+    <row r="44" spans="12:18" ht="15.75" customHeight="1">
+      <c r="M44" s="4"/>
+    </row>
+    <row r="45" spans="12:18" ht="15.75" customHeight="1">
+      <c r="M45" s="4"/>
+    </row>
+    <row r="46" spans="12:18" ht="15.75" customHeight="1">
+      <c r="M46" s="4"/>
+    </row>
+    <row r="47" spans="12:18" ht="15.75" customHeight="1"/>
+    <row r="48" spans="12:18" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
